--- a/polls/IROS2020_onDemand.xlsx
+++ b/polls/IROS2020_onDemand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A6F421-D76A-413F-A22E-0EFAD05DE29B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FE2038-87D9-4F96-8498-6B0B6ADB3F5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Pavilion</t>
   </si>
@@ -138,16 +138,10 @@
     <t>Design, Mechanisms, Actuators, Soft, Bio-Inspired</t>
   </si>
   <si>
-    <t>Aerial Systems: Learning</t>
-  </si>
-  <si>
-    <t>Humanoid: Learning</t>
-  </si>
-  <si>
-    <t>Humanoid: Traffic Control</t>
-  </si>
-  <si>
     <t>End-effectors (Grasping, Haptics)</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -1020,118 +1014,55 @@
     <col min="8" max="8" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1139,7 +1070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1147,7 +1078,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1155,7 +1086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1163,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1171,7 +1102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1179,7 +1110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>

--- a/polls/IROS2020_onDemand.xlsx
+++ b/polls/IROS2020_onDemand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FE2038-87D9-4F96-8498-6B0B6ADB3F5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2777B6-8313-4A4A-89E4-CD253082262D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -1003,15 +1003,15 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1132,10 +1132,10 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1235,10 +1235,10 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="53.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
